--- a/RAW_DATA.xlsx
+++ b/RAW_DATA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="131">
   <si>
     <t>Coding</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>Careful selection of keywords, synonyms, alternative terms and avoiding homonyms</t>
-  </si>
-  <si>
-    <t>\cite{Intiaz13}</t>
   </si>
   <si>
     <t>Combination of automatic and manual search can ensure coverage</t>
@@ -627,9 +624,6 @@
     </r>
   </si>
   <si>
-    <t>\cite{intiaz13}</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1171,17 +1165,17 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Barrier (possible causes)</t>
-  </si>
-  <si>
     <t>Lack of standardization and incorrect/incomplete keywords hinder the search string construction</t>
+  </si>
+  <si>
+    <t>Barriers (possible causes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1213,24 +1207,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFF3F3F3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -1245,8 +1221,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1255,18 +1245,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF666666"/>
-        <bgColor rgb="FF666666"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FF666666"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1385,11 +1381,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1411,18 +1422,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1435,13 +1434,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1462,10 +1461,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1489,7 +1488,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1503,9 +1501,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1514,6 +1509,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1531,7 +1553,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1549,7 +1571,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1570,9 +1592,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1582,20 +1601,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1817,8 +1837,8 @@
   </sheetPr>
   <dimension ref="A1:G1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1828,1359 +1848,1359 @@
     <col min="3" max="3" width="17.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="73.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="38" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="12.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="59">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="59">
+        <v>2</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="59">
+        <v>3</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="A15" s="59">
+        <v>4</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="64">
+        <v>5</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="E17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="59">
+        <v>6</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="59">
+        <v>7</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="42">
+        <v>8</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="42">
+        <v>9</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="59">
+        <v>10</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="66">
+        <v>11</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="67"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="68"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A38" s="64">
+        <v>12</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="59">
+        <v>13</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A45" s="59"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="59"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+      <c r="A47" s="59">
+        <v>14</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="59"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="59"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="59"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A51" s="26">
         <v>15</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="B51" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="26">
+        <v>16</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="59">
         <v>18</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="43" t="s">
+      <c r="B53" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="59"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="36" t="s">
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="59"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="36" t="s">
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A56" s="59">
+        <v>19</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="59"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="28" t="s">
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A58" s="59">
+        <v>20</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="59"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="59"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A61" s="59">
+        <v>21</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="59"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="63"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="27">
+        <v>22</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="59">
+        <v>23</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
-        <v>2</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="48" t="s">
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="59"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="59"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="59">
+        <v>24</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A69" s="59"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="59">
+        <v>25</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="59"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="59"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="59"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="26">
+        <v>26</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="26">
+        <v>27</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="59">
+        <v>28</v>
+      </c>
+      <c r="B76" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77" s="59"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="59"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="59">
+        <v>29</v>
+      </c>
+      <c r="B79" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="D79" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="59"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="59"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="59"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="59"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="26">
+        <v>30</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="40" t="s">
+      <c r="D84" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="240" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
-        <v>4</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="61">
-        <v>5</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="52" t="s">
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="26">
+        <v>31</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="56">
-        <v>6</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="56">
-        <v>7</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
-        <v>8</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
-        <v>9</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="56">
-        <v>10</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="63">
-        <v>11</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A38" s="61">
-        <v>12</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="56">
-        <v>13</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" ht="330" x14ac:dyDescent="0.25">
-      <c r="A47" s="56">
-        <v>14</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A51" s="30">
-        <v>15</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="30">
-        <v>16</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="56">
-        <v>18</v>
-      </c>
-      <c r="B53" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A56" s="56">
-        <v>19</v>
-      </c>
-      <c r="B56" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F56" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A58" s="56">
-        <v>20</v>
-      </c>
-      <c r="B58" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7" ht="270" x14ac:dyDescent="0.25">
-      <c r="A61" s="56">
-        <v>21</v>
-      </c>
-      <c r="B61" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F61" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F62" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="60"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="31">
-        <v>22</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="56">
-        <v>23</v>
-      </c>
-      <c r="B65" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F66" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="56">
-        <v>24</v>
-      </c>
-      <c r="B68" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F68" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A69" s="56"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F69" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="56">
-        <v>25</v>
-      </c>
-      <c r="B70" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F70" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="56"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F71" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G72" s="7"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="56"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G73" s="7"/>
-    </row>
-    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="30">
-        <v>26</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F74" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G74" s="7"/>
-    </row>
-    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="30">
-        <v>27</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F75" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="56">
-        <v>28</v>
-      </c>
-      <c r="B76" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F76" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="13" t="s">
+      <c r="D85" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F77" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G77" s="7"/>
-    </row>
-    <row r="78" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="56"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F78" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G78" s="7"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="56">
-        <v>29</v>
-      </c>
-      <c r="B79" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F79" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G79" s="7"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F80" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G80" s="7"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F81" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G81" s="7"/>
-    </row>
-    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G82" s="7"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G83" s="7"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="30">
-        <v>30</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F84" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G84" s="7"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="30">
-        <v>31</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F85" s="36" t="s">
+      <c r="F85" s="31" t="s">
         <v>58</v>
       </c>
       <c r="G85" s="7"/>
@@ -9734,6 +9754,12 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="D35:D37"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D22"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="B15:B16"/>
@@ -9743,12 +9769,6 @@
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="D9:D14"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="D17:D22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
